--- a/flash-api/src/main/resources/templates/water_Origin_Statistics.xlsx
+++ b/flash-api/src/main/resources/templates/water_Origin_Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -25,13 +25,13 @@
     <t>客户姓名</t>
   </si>
   <si>
-    <t>最后开票时间</t>
-  </si>
-  <si>
     <t>开票类型</t>
   </si>
   <si>
-    <t>开票人</t>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>收费区间</t>
   </si>
   <si>
     <r>
@@ -72,6 +72,12 @@
     </r>
   </si>
   <si>
+    <t>开票人</t>
+  </si>
+  <si>
+    <t>最后开票时间</t>
+  </si>
+  <si>
     <t>${index}</t>
   </si>
   <si>
@@ -81,16 +87,22 @@
     <t>${cname}</t>
   </si>
   <si>
+    <t>${type_}</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>${remark}</t>
+  </si>
+  <si>
+    <t>${cost}</t>
+  </si>
+  <si>
+    <t>${modifyBy_}</t>
+  </si>
+  <si>
     <t>${modifyTime_}</t>
-  </si>
-  <si>
-    <t>${type_}</t>
-  </si>
-  <si>
-    <t>${modifyBy_}</t>
-  </si>
-  <si>
-    <t>${cost}</t>
   </si>
 </sst>
 </file>
@@ -1058,23 +1070,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1096,28 +1110,40 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
